--- a/results/GammaPowerElectronGaussian/gamma_Power_10_10000_keV_alpha_-3_electron_Gauss_600_600_keV_R_30_cm_Nr_2000000000_ISO_model_det1 - Unfolded Fluence Spectrum.xlsx
+++ b/results/GammaPowerElectronGaussian/gamma_Power_10_10000_keV_alpha_-3_electron_Gauss_600_600_keV_R_30_cm_Nr_2000000000_ISO_model_det1 - Unfolded Fluence Spectrum.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,31 +520,31 @@
         <v>0.153307554461641</v>
       </c>
       <c r="F2" t="n">
-        <v>303.987684088636</v>
+        <v>302.2197284771133</v>
       </c>
       <c r="G2" t="n">
-        <v>25.98925206841777</v>
+        <v>13.90952120653222</v>
       </c>
       <c r="H2" t="n">
-        <v>580.3279054843831</v>
+        <v>568.779759737437</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9002489842674433</v>
+        <v>0.8981474680724735</v>
       </c>
       <c r="J2" t="n">
-        <v>0.005233283893910604</v>
+        <v>0.01976595230542073</v>
       </c>
       <c r="K2" t="n">
-        <v>1.92605494091647</v>
+        <v>1.91562581830158</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2185368376567614</v>
+        <v>0.2206072381506798</v>
       </c>
       <c r="M2" t="n">
-        <v>0.00842595864544524</v>
+        <v>0.007285163703287202</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4504902823715792</v>
+        <v>0.4489508945254752</v>
       </c>
     </row>
     <row r="3">
@@ -566,31 +566,77 @@
         <v>0.0004310974903568659</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01013576932251535</v>
+        <v>0.01004502079645653</v>
       </c>
       <c r="G3" t="n">
-        <v>0.002903413555391713</v>
+        <v>0.003021358651792475</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01682266965233168</v>
+        <v>0.01671115311239314</v>
       </c>
       <c r="I3" t="n">
-        <v>0.009433844130505891</v>
+        <v>0.009354655345478125</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0027260131837083</v>
+        <v>0.002847080942775661</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01563184853608362</v>
+        <v>0.01553659064173481</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01017310735270146</v>
+        <v>0.01008262332407133</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002949661384919612</v>
+        <v>0.003068835559993827</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01685435960874226</v>
+        <v>0.01674621405088857</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Beta + Gamma</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12.00687180793019</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.974477778970852</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1537386519519979</v>
+      </c>
+      <c r="F4" t="n">
+        <v>302.2297734979098</v>
+      </c>
+      <c r="G4" t="n">
+        <v>13.91254256518401</v>
+      </c>
+      <c r="H4" t="n">
+        <v>568.7964708905492</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9075021234179516</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.02261303324819639</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.931162408943315</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.2306898614747512</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.01035399926328103</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.4656971085763638</v>
       </c>
     </row>
   </sheetData>
